--- a/resource/data/non_standard/13.05.16/15/measurement-1.xlsx
+++ b/resource/data/non_standard/13.05.16/15/measurement-1.xlsx
@@ -61,7 +61,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,15 +157,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,6 +207,9 @@
         <v>0</v>
       </c>
       <c r="M1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -244,6 +247,9 @@
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -277,6 +283,9 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -312,6 +321,9 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -347,6 +359,9 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -382,6 +397,9 @@
         <v>4</v>
       </c>
       <c r="M6" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <v>36</v>
       </c>
     </row>
@@ -417,6 +435,9 @@
         <v>4</v>
       </c>
       <c r="M7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -452,6 +473,9 @@
         <v>5</v>
       </c>
       <c r="M8" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -483,6 +507,9 @@
         <v>6</v>
       </c>
       <c r="M9" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>35</v>
       </c>
     </row>
@@ -514,6 +541,9 @@
         <v>7</v>
       </c>
       <c r="M10" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N10" s="2" t="n">
         <v>35</v>
       </c>
     </row>
@@ -545,6 +575,9 @@
         <v>7</v>
       </c>
       <c r="M11" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N11" s="2" t="n">
         <v>35</v>
       </c>
     </row>
@@ -576,6 +609,9 @@
         <v>7</v>
       </c>
       <c r="M12" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -607,6 +643,9 @@
         <v>8</v>
       </c>
       <c r="M13" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -638,6 +677,9 @@
         <v>8</v>
       </c>
       <c r="M14" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N14" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -669,6 +711,9 @@
         <v>9</v>
       </c>
       <c r="M15" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -700,6 +745,9 @@
         <v>9</v>
       </c>
       <c r="M16" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <v>34</v>
       </c>
     </row>
@@ -731,6 +779,9 @@
         <v>9</v>
       </c>
       <c r="M17" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N17" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -762,6 +813,9 @@
         <v>9</v>
       </c>
       <c r="M18" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -793,6 +847,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -824,6 +881,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N20" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -855,6 +915,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N21" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -886,6 +949,9 @@
         <v>11</v>
       </c>
       <c r="M22" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N22" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -917,6 +983,9 @@
         <v>11</v>
       </c>
       <c r="M23" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N23" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -948,6 +1017,9 @@
         <v>11</v>
       </c>
       <c r="M24" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N24" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -979,6 +1051,9 @@
         <v>11</v>
       </c>
       <c r="M25" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="N25" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1010,6 +1085,9 @@
         <v>11</v>
       </c>
       <c r="M26" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1041,6 +1119,9 @@
         <v>11</v>
       </c>
       <c r="M27" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N27" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1072,6 +1153,9 @@
         <v>12</v>
       </c>
       <c r="M28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N28" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1103,6 +1187,9 @@
         <v>12</v>
       </c>
       <c r="M29" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1134,6 +1221,9 @@
         <v>12</v>
       </c>
       <c r="M30" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N30" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1165,6 +1255,9 @@
         <v>11</v>
       </c>
       <c r="M31" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N31" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1196,6 +1289,9 @@
         <v>12</v>
       </c>
       <c r="M32" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N32" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1227,6 +1323,9 @@
         <v>13</v>
       </c>
       <c r="M33" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N33" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1258,6 +1357,9 @@
         <v>12</v>
       </c>
       <c r="M34" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N34" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1289,6 +1391,9 @@
         <v>12</v>
       </c>
       <c r="M35" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N35" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1320,6 +1425,9 @@
         <v>13</v>
       </c>
       <c r="M36" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N36" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1351,6 +1459,9 @@
         <v>13</v>
       </c>
       <c r="M37" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1382,6 +1493,9 @@
         <v>13</v>
       </c>
       <c r="M38" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N38" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1413,6 +1527,9 @@
         <v>13</v>
       </c>
       <c r="M39" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N39" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1444,6 +1561,9 @@
         <v>13</v>
       </c>
       <c r="M40" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N40" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1475,6 +1595,9 @@
         <v>13</v>
       </c>
       <c r="M41" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N41" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1506,6 +1629,9 @@
         <v>13</v>
       </c>
       <c r="M42" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N42" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1537,6 +1663,9 @@
         <v>14</v>
       </c>
       <c r="M43" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N43" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1568,6 +1697,9 @@
         <v>13</v>
       </c>
       <c r="M44" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N44" s="2" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1599,6 +1731,9 @@
         <v>13</v>
       </c>
       <c r="M45" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N45" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1630,6 +1765,9 @@
         <v>13</v>
       </c>
       <c r="M46" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N46" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1661,6 +1799,9 @@
         <v>13</v>
       </c>
       <c r="M47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N47" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1692,6 +1833,9 @@
         <v>13</v>
       </c>
       <c r="M48" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N48" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1723,6 +1867,9 @@
         <v>14</v>
       </c>
       <c r="M49" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N49" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1754,6 +1901,9 @@
         <v>14</v>
       </c>
       <c r="M50" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N50" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1785,6 +1935,9 @@
         <v>14</v>
       </c>
       <c r="M51" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N51" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1816,6 +1969,9 @@
         <v>14</v>
       </c>
       <c r="M52" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N52" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1847,6 +2003,9 @@
         <v>14</v>
       </c>
       <c r="M53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N53" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1878,6 +2037,9 @@
         <v>14</v>
       </c>
       <c r="M54" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N54" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1909,6 +2071,9 @@
         <v>14</v>
       </c>
       <c r="M55" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N55" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1940,6 +2105,9 @@
         <v>14</v>
       </c>
       <c r="M56" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N56" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1971,6 +2139,9 @@
         <v>15</v>
       </c>
       <c r="M57" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N57" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2002,6 +2173,9 @@
         <v>15</v>
       </c>
       <c r="M58" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N58" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2033,6 +2207,9 @@
         <v>15</v>
       </c>
       <c r="M59" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N59" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2064,6 +2241,9 @@
         <v>15</v>
       </c>
       <c r="M60" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N60" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2095,6 +2275,9 @@
         <v>15</v>
       </c>
       <c r="M61" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N61" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2126,6 +2309,9 @@
         <v>15</v>
       </c>
       <c r="M62" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N62" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2157,6 +2343,9 @@
         <v>15</v>
       </c>
       <c r="M63" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N63" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2188,6 +2377,9 @@
         <v>15</v>
       </c>
       <c r="M64" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N64" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2219,6 +2411,9 @@
         <v>15</v>
       </c>
       <c r="M65" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N65" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2250,6 +2445,9 @@
         <v>15</v>
       </c>
       <c r="M66" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N66" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2281,6 +2479,9 @@
         <v>15</v>
       </c>
       <c r="M67" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N67" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2312,6 +2513,9 @@
         <v>15</v>
       </c>
       <c r="M68" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N68" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2343,6 +2547,9 @@
         <v>16</v>
       </c>
       <c r="M69" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N69" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2374,6 +2581,9 @@
         <v>16</v>
       </c>
       <c r="M70" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N70" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2405,6 +2615,9 @@
         <v>15</v>
       </c>
       <c r="M71" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N71" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2436,6 +2649,9 @@
         <v>15</v>
       </c>
       <c r="M72" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N72" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2467,6 +2683,9 @@
         <v>16</v>
       </c>
       <c r="M73" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N73" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2498,6 +2717,9 @@
         <v>16</v>
       </c>
       <c r="M74" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N74" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2529,6 +2751,9 @@
         <v>16</v>
       </c>
       <c r="M75" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N75" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2560,6 +2785,9 @@
         <v>16</v>
       </c>
       <c r="M76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N76" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2591,6 +2819,9 @@
         <v>16</v>
       </c>
       <c r="M77" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N77" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2622,6 +2853,9 @@
         <v>16</v>
       </c>
       <c r="M78" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N78" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2653,6 +2887,9 @@
         <v>15</v>
       </c>
       <c r="M79" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N79" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2684,6 +2921,9 @@
         <v>16</v>
       </c>
       <c r="M80" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N80" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2715,6 +2955,9 @@
         <v>16</v>
       </c>
       <c r="M81" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N81" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2746,6 +2989,9 @@
         <v>16</v>
       </c>
       <c r="M82" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N82" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2777,6 +3023,9 @@
         <v>16</v>
       </c>
       <c r="M83" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N83" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2808,6 +3057,9 @@
         <v>16</v>
       </c>
       <c r="M84" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N84" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2839,6 +3091,9 @@
         <v>16</v>
       </c>
       <c r="M85" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N85" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2870,6 +3125,9 @@
         <v>16</v>
       </c>
       <c r="M86" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N86" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2901,6 +3159,9 @@
         <v>16</v>
       </c>
       <c r="M87" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N87" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2932,6 +3193,9 @@
         <v>17</v>
       </c>
       <c r="M88" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N88" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2963,6 +3227,9 @@
         <v>16</v>
       </c>
       <c r="M89" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N89" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2994,6 +3261,9 @@
         <v>16</v>
       </c>
       <c r="M90" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N90" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3025,6 +3295,9 @@
         <v>17</v>
       </c>
       <c r="M91" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N91" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3056,6 +3329,9 @@
         <v>17</v>
       </c>
       <c r="M92" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N92" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3087,6 +3363,9 @@
         <v>16</v>
       </c>
       <c r="M93" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N93" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3118,6 +3397,9 @@
         <v>16</v>
       </c>
       <c r="M94" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N94" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3149,6 +3431,9 @@
         <v>16</v>
       </c>
       <c r="M95" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N95" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3180,6 +3465,9 @@
         <v>16</v>
       </c>
       <c r="M96" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N96" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3211,6 +3499,9 @@
         <v>17</v>
       </c>
       <c r="M97" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N97" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3242,6 +3533,9 @@
         <v>17</v>
       </c>
       <c r="M98" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N98" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3273,6 +3567,9 @@
         <v>17</v>
       </c>
       <c r="M99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N99" s="2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3304,6 +3601,9 @@
         <v>16</v>
       </c>
       <c r="M100" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N100" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3335,6 +3635,9 @@
         <v>16</v>
       </c>
       <c r="M101" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N101" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3366,6 +3669,9 @@
         <v>17</v>
       </c>
       <c r="M102" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N102" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3397,6 +3703,9 @@
         <v>17</v>
       </c>
       <c r="M103" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N103" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3428,6 +3737,9 @@
         <v>16</v>
       </c>
       <c r="M104" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N104" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3459,6 +3771,9 @@
         <v>17</v>
       </c>
       <c r="M105" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N105" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3490,6 +3805,9 @@
         <v>17</v>
       </c>
       <c r="M106" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N106" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3521,6 +3839,9 @@
         <v>17</v>
       </c>
       <c r="M107" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N107" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3552,6 +3873,9 @@
         <v>17</v>
       </c>
       <c r="M108" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N108" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3583,6 +3907,9 @@
         <v>17</v>
       </c>
       <c r="M109" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N109" s="2" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3614,6 +3941,9 @@
         <v>17</v>
       </c>
       <c r="M110" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N110" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3645,6 +3975,9 @@
         <v>17</v>
       </c>
       <c r="M111" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N111" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3676,6 +4009,9 @@
         <v>17</v>
       </c>
       <c r="M112" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N112" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3707,6 +4043,9 @@
         <v>17</v>
       </c>
       <c r="M113" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N113" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3738,6 +4077,9 @@
         <v>18</v>
       </c>
       <c r="M114" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N114" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3769,6 +4111,9 @@
         <v>18</v>
       </c>
       <c r="M115" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N115" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3800,6 +4145,9 @@
         <v>18</v>
       </c>
       <c r="M116" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N116" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3831,6 +4179,9 @@
         <v>18</v>
       </c>
       <c r="M117" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N117" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3862,6 +4213,9 @@
         <v>18</v>
       </c>
       <c r="M118" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N118" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3893,6 +4247,9 @@
         <v>18</v>
       </c>
       <c r="M119" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N119" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3914,20 +4271,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3942,20 +4300,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
